--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2568" windowWidth="14772" windowHeight="2760"/>
+    <workbookView xWindow="0" yWindow="2376" windowWidth="8652" windowHeight="2880"/>
   </bookViews>
   <sheets>
     <sheet name="FullSuite" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,13 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="221">
   <si>
     <t>Description</t>
   </si>
@@ -677,6 +678,9 @@
   </si>
   <si>
     <t>Payroll Recognition ScenarioThree201718</t>
+  </si>
+  <si>
+    <t>Payroll Recognition ScenarioFour201718</t>
   </si>
 </sst>
 </file>
@@ -1121,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D188"/>
+  <dimension ref="A1:D189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView tabSelected="1" topLeftCell="B185" workbookViewId="0">
+      <selection activeCell="E189" sqref="E189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3202,6 +3206,17 @@
         <v>217</v>
       </c>
       <c r="C188" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>220</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>118</v>
       </c>
     </row>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2376" windowWidth="8652" windowHeight="2880"/>
+    <workbookView xWindow="0" yWindow="2370" windowWidth="8655" windowHeight="2880"/>
   </bookViews>
   <sheets>
     <sheet name="FullSuite" sheetId="1" r:id="rId1"/>
@@ -12,13 +17,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="223">
   <si>
     <t>Description</t>
   </si>
@@ -681,12 +685,18 @@
   </si>
   <si>
     <t>Payroll Recognition ScenarioFour201718</t>
+  </si>
+  <si>
+    <t>Payroll Recognition ScenarioSeven201718</t>
+  </si>
+  <si>
+    <t>Payroll Recognition ScenarioFive201718</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -776,7 +786,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -824,6 +834,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -833,6 +846,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -881,7 +897,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -914,9 +930,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -949,6 +982,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1125,17 +1175,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D189"/>
+  <dimension ref="A1:D197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B185" workbookViewId="0">
-      <selection activeCell="E189" sqref="E189"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="C190" sqref="C190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.5546875" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="67.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -1152,7 +1202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1163,7 +1213,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1174,7 +1224,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1185,7 +1235,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1196,7 +1246,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1207,7 +1257,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1218,7 +1268,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1229,7 +1279,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1240,7 +1290,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1251,7 +1301,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1262,7 +1312,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1273,7 +1323,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>15</v>
       </c>
@@ -1284,7 +1334,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
@@ -1295,7 +1345,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
@@ -1306,7 +1356,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>18</v>
       </c>
@@ -1317,7 +1367,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
@@ -1328,7 +1378,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>20</v>
       </c>
@@ -1339,7 +1389,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>21</v>
       </c>
@@ -1350,7 +1400,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>22</v>
       </c>
@@ -1361,7 +1411,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>23</v>
       </c>
@@ -1372,7 +1422,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>24</v>
       </c>
@@ -1383,7 +1433,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>25</v>
       </c>
@@ -1394,7 +1444,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>26</v>
       </c>
@@ -1405,7 +1455,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>27</v>
       </c>
@@ -1416,7 +1466,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>28</v>
       </c>
@@ -1427,7 +1477,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>29</v>
       </c>
@@ -1438,7 +1488,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>30</v>
       </c>
@@ -1449,7 +1499,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>31</v>
       </c>
@@ -1460,7 +1510,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>32</v>
       </c>
@@ -1471,7 +1521,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>33</v>
       </c>
@@ -1482,7 +1532,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>34</v>
       </c>
@@ -1493,7 +1543,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>35</v>
       </c>
@@ -1504,7 +1554,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>36</v>
       </c>
@@ -1515,7 +1565,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>37</v>
       </c>
@@ -1526,7 +1576,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>38</v>
       </c>
@@ -1537,7 +1587,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>39</v>
       </c>
@@ -1548,7 +1598,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>40</v>
       </c>
@@ -1559,7 +1609,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>41</v>
       </c>
@@ -1570,7 +1620,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>42</v>
       </c>
@@ -1581,7 +1631,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>43</v>
       </c>
@@ -1592,7 +1642,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>44</v>
       </c>
@@ -1603,7 +1653,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>45</v>
       </c>
@@ -1614,7 +1664,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>46</v>
       </c>
@@ -1625,7 +1675,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>47</v>
       </c>
@@ -1636,7 +1686,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>48</v>
       </c>
@@ -1647,7 +1697,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>49</v>
       </c>
@@ -1658,7 +1708,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>50</v>
       </c>
@@ -1669,7 +1719,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>51</v>
       </c>
@@ -1680,7 +1730,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>52</v>
       </c>
@@ -1691,7 +1741,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>54</v>
       </c>
@@ -1702,7 +1752,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>53</v>
       </c>
@@ -1713,7 +1763,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>55</v>
       </c>
@@ -1724,7 +1774,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>56</v>
       </c>
@@ -1735,7 +1785,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>57</v>
       </c>
@@ -1746,7 +1796,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>58</v>
       </c>
@@ -1757,7 +1807,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>59</v>
       </c>
@@ -1768,7 +1818,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>60</v>
       </c>
@@ -1779,7 +1829,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>61</v>
       </c>
@@ -1790,7 +1840,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>62</v>
       </c>
@@ -1801,7 +1851,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>63</v>
       </c>
@@ -1812,7 +1862,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>64</v>
       </c>
@@ -1823,7 +1873,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>65</v>
       </c>
@@ -1834,7 +1884,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>66</v>
       </c>
@@ -1845,7 +1895,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>67</v>
       </c>
@@ -1856,7 +1906,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>68</v>
       </c>
@@ -1867,7 +1917,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>69</v>
       </c>
@@ -1878,7 +1928,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>70</v>
       </c>
@@ -1889,7 +1939,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>71</v>
       </c>
@@ -1900,7 +1950,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>72</v>
       </c>
@@ -1911,7 +1961,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>73</v>
       </c>
@@ -1922,7 +1972,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>74</v>
       </c>
@@ -1933,7 +1983,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>75</v>
       </c>
@@ -1944,7 +1994,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>76</v>
       </c>
@@ -1955,7 +2005,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>77</v>
       </c>
@@ -1966,7 +2016,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>78</v>
       </c>
@@ -1977,7 +2027,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>80</v>
       </c>
@@ -1988,7 +2038,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>79</v>
       </c>
@@ -1999,7 +2049,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>81</v>
       </c>
@@ -2010,7 +2060,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>83</v>
       </c>
@@ -2021,7 +2071,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>85</v>
       </c>
@@ -2032,7 +2082,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>87</v>
       </c>
@@ -2043,7 +2093,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>89</v>
       </c>
@@ -2054,7 +2104,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>93</v>
       </c>
@@ -2065,7 +2115,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>92</v>
       </c>
@@ -2076,7 +2126,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>94</v>
       </c>
@@ -2087,7 +2137,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>96</v>
       </c>
@@ -2098,7 +2148,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>97</v>
       </c>
@@ -2109,7 +2159,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>98</v>
       </c>
@@ -2120,7 +2170,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>100</v>
       </c>
@@ -2131,7 +2181,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -2142,7 +2192,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>106</v>
       </c>
@@ -2153,7 +2203,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>107</v>
       </c>
@@ -2164,7 +2214,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -2175,7 +2225,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>111</v>
       </c>
@@ -2186,7 +2236,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>119</v>
       </c>
@@ -2197,7 +2247,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>112</v>
       </c>
@@ -2208,7 +2258,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>113</v>
       </c>
@@ -2219,7 +2269,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -2230,7 +2280,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -2241,7 +2291,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>121</v>
       </c>
@@ -2252,7 +2302,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>123</v>
       </c>
@@ -2263,7 +2313,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>125</v>
       </c>
@@ -2274,7 +2324,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>126</v>
       </c>
@@ -2285,7 +2335,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>128</v>
       </c>
@@ -2296,7 +2346,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>130</v>
       </c>
@@ -2307,7 +2357,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>131</v>
       </c>
@@ -2318,7 +2368,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>165</v>
       </c>
@@ -2329,7 +2379,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>166</v>
       </c>
@@ -2340,7 +2390,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>167</v>
       </c>
@@ -2351,7 +2401,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>168</v>
       </c>
@@ -2362,7 +2412,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>169</v>
       </c>
@@ -2373,7 +2423,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>170</v>
       </c>
@@ -2384,7 +2434,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>171</v>
       </c>
@@ -2395,7 +2445,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
         <v>172</v>
       </c>
@@ -2406,7 +2456,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
         <v>173</v>
       </c>
@@ -2417,7 +2467,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
         <v>175</v>
       </c>
@@ -2428,7 +2478,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
         <v>174</v>
       </c>
@@ -2439,7 +2489,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
         <v>176</v>
       </c>
@@ -2450,7 +2500,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
         <v>177</v>
       </c>
@@ -2461,7 +2511,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
         <v>178</v>
       </c>
@@ -2472,7 +2522,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>179</v>
       </c>
@@ -2483,7 +2533,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>180</v>
       </c>
@@ -2494,7 +2544,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>181</v>
       </c>
@@ -2505,7 +2555,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>182</v>
       </c>
@@ -2516,7 +2566,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>183</v>
       </c>
@@ -2527,7 +2577,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>184</v>
       </c>
@@ -2538,7 +2588,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>185</v>
       </c>
@@ -2549,7 +2599,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>190</v>
       </c>
@@ -2560,7 +2610,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>191</v>
       </c>
@@ -2571,7 +2621,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>192</v>
       </c>
@@ -2582,7 +2632,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>193</v>
       </c>
@@ -2593,7 +2643,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>194</v>
       </c>
@@ -2604,7 +2654,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>195</v>
       </c>
@@ -2615,7 +2665,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>196</v>
       </c>
@@ -2626,7 +2676,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>188</v>
       </c>
@@ -2637,7 +2687,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="20" t="s">
         <v>133</v>
       </c>
@@ -2648,7 +2698,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="16" t="s">
         <v>134</v>
       </c>
@@ -2659,7 +2709,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>135</v>
       </c>
@@ -2670,7 +2720,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>136</v>
       </c>
@@ -2681,7 +2731,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>137</v>
       </c>
@@ -2692,7 +2742,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>138</v>
       </c>
@@ -2703,7 +2753,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="20" t="s">
         <v>139</v>
       </c>
@@ -2714,7 +2764,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="20" t="s">
         <v>140</v>
       </c>
@@ -2725,7 +2775,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="20" t="s">
         <v>141</v>
       </c>
@@ -2736,7 +2786,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="20" t="s">
         <v>142</v>
       </c>
@@ -2747,7 +2797,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="18" t="s">
         <v>143</v>
       </c>
@@ -2758,7 +2808,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="18" t="s">
         <v>144</v>
       </c>
@@ -2769,7 +2819,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="18" t="s">
         <v>145</v>
       </c>
@@ -2780,7 +2830,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="18" t="s">
         <v>146</v>
       </c>
@@ -2791,7 +2841,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="18" t="s">
         <v>147</v>
       </c>
@@ -2802,7 +2852,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="18" t="s">
         <v>148</v>
       </c>
@@ -2813,7 +2863,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="18" t="s">
         <v>149</v>
       </c>
@@ -2824,7 +2874,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="18" t="s">
         <v>150</v>
       </c>
@@ -2835,7 +2885,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="18" t="s">
         <v>151</v>
       </c>
@@ -2846,7 +2896,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="18" t="s">
         <v>152</v>
       </c>
@@ -2857,7 +2907,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="18" t="s">
         <v>153</v>
       </c>
@@ -2868,7 +2918,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="18" t="s">
         <v>154</v>
       </c>
@@ -2879,7 +2929,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>155</v>
       </c>
@@ -2890,7 +2940,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>156</v>
       </c>
@@ -2901,7 +2951,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>157</v>
       </c>
@@ -2912,7 +2962,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>158</v>
       </c>
@@ -2923,7 +2973,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>159</v>
       </c>
@@ -2934,7 +2984,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>160</v>
       </c>
@@ -2945,7 +2995,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>161</v>
       </c>
@@ -2956,7 +3006,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>162</v>
       </c>
@@ -2967,7 +3017,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>163</v>
       </c>
@@ -2978,7 +3028,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>164</v>
       </c>
@@ -2989,7 +3039,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>186</v>
       </c>
@@ -3000,7 +3050,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>187</v>
       </c>
@@ -3011,7 +3061,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>197</v>
       </c>
@@ -3022,7 +3072,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>198</v>
       </c>
@@ -3033,7 +3083,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>199</v>
       </c>
@@ -3044,7 +3094,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>200</v>
       </c>
@@ -3055,7 +3105,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>201</v>
       </c>
@@ -3066,7 +3116,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>202</v>
       </c>
@@ -3077,7 +3127,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>203</v>
       </c>
@@ -3088,7 +3138,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>204</v>
       </c>
@@ -3099,7 +3149,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>206</v>
       </c>
@@ -3110,7 +3160,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>208</v>
       </c>
@@ -3121,7 +3171,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>209</v>
       </c>
@@ -3132,7 +3182,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>210</v>
       </c>
@@ -3143,7 +3193,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>212</v>
       </c>
@@ -3154,7 +3204,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>214</v>
       </c>
@@ -3165,7 +3215,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>215</v>
       </c>
@@ -3176,7 +3226,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>216</v>
       </c>
@@ -3187,7 +3237,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>218</v>
       </c>
@@ -3198,7 +3248,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>219</v>
       </c>
@@ -3209,7 +3259,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>220</v>
       </c>
@@ -3219,6 +3269,48 @@
       <c r="C189" s="2" t="s">
         <v>118</v>
       </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>222</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>221</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B193" s="23"/>
+      <c r="C193" s="2"/>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B194" s="23"/>
+      <c r="C194" s="2"/>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B195" s="23"/>
+      <c r="C195" s="2"/>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B196" s="23"/>
+      <c r="C196" s="2"/>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B197" s="23"/>
+      <c r="C197" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3232,7 +3324,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3244,7 +3336,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3256,7 +3348,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -1178,7 +1178,7 @@
   <dimension ref="A1:D197"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="C190" sqref="C190"/>
+      <selection activeCell="E184" sqref="E184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2370" windowWidth="8655" windowHeight="2880"/>
+    <workbookView xWindow="0" yWindow="2376" windowWidth="8652" windowHeight="2880"/>
   </bookViews>
   <sheets>
     <sheet name="FullSuite" sheetId="1" r:id="rId1"/>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="224">
   <si>
     <t>Description</t>
   </si>
@@ -691,12 +686,15 @@
   </si>
   <si>
     <t>Payroll Recognition ScenarioFive201718</t>
+  </si>
+  <si>
+    <t>Payroll Recognition ScenarioSix201718</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -897,7 +895,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -930,26 +928,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -982,23 +963,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1175,17 +1139,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D197"/>
+  <dimension ref="A1:D196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="E184" sqref="E184"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="67.5703125" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="67.5546875" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -1213,7 +1177,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1224,7 +1188,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1235,7 +1199,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1246,7 +1210,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1257,7 +1221,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1268,7 +1232,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1279,7 +1243,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1290,7 +1254,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1301,7 +1265,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1312,7 +1276,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1323,7 +1287,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>15</v>
       </c>
@@ -1334,7 +1298,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
@@ -1345,7 +1309,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
@@ -1356,7 +1320,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>18</v>
       </c>
@@ -1367,7 +1331,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
@@ -1378,7 +1342,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>20</v>
       </c>
@@ -1389,7 +1353,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>21</v>
       </c>
@@ -1400,7 +1364,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>22</v>
       </c>
@@ -1411,7 +1375,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>23</v>
       </c>
@@ -1422,7 +1386,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>24</v>
       </c>
@@ -1433,7 +1397,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>25</v>
       </c>
@@ -1444,7 +1408,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>26</v>
       </c>
@@ -1455,7 +1419,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>27</v>
       </c>
@@ -1466,7 +1430,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>28</v>
       </c>
@@ -1477,7 +1441,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>29</v>
       </c>
@@ -1488,7 +1452,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>30</v>
       </c>
@@ -1499,7 +1463,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>31</v>
       </c>
@@ -1510,7 +1474,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>32</v>
       </c>
@@ -1521,7 +1485,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>33</v>
       </c>
@@ -1532,7 +1496,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>34</v>
       </c>
@@ -1543,7 +1507,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>35</v>
       </c>
@@ -1554,7 +1518,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>36</v>
       </c>
@@ -1565,7 +1529,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>37</v>
       </c>
@@ -1576,7 +1540,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>38</v>
       </c>
@@ -1587,7 +1551,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>39</v>
       </c>
@@ -1598,7 +1562,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>40</v>
       </c>
@@ -1609,7 +1573,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>41</v>
       </c>
@@ -1620,7 +1584,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>42</v>
       </c>
@@ -1631,7 +1595,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>43</v>
       </c>
@@ -1642,7 +1606,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>44</v>
       </c>
@@ -1653,7 +1617,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>45</v>
       </c>
@@ -1664,7 +1628,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>46</v>
       </c>
@@ -1675,7 +1639,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>47</v>
       </c>
@@ -1686,7 +1650,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>48</v>
       </c>
@@ -1697,7 +1661,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>49</v>
       </c>
@@ -1708,7 +1672,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>50</v>
       </c>
@@ -1730,7 +1694,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>52</v>
       </c>
@@ -1752,7 +1716,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>53</v>
       </c>
@@ -1763,7 +1727,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>55</v>
       </c>
@@ -1774,7 +1738,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>56</v>
       </c>
@@ -1785,7 +1749,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>57</v>
       </c>
@@ -1796,7 +1760,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>58</v>
       </c>
@@ -1807,7 +1771,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>59</v>
       </c>
@@ -1840,7 +1804,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>62</v>
       </c>
@@ -1851,7 +1815,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>63</v>
       </c>
@@ -1895,7 +1859,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>67</v>
       </c>
@@ -1906,7 +1870,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>68</v>
       </c>
@@ -1917,7 +1881,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>69</v>
       </c>
@@ -1928,7 +1892,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>70</v>
       </c>
@@ -1939,7 +1903,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>71</v>
       </c>
@@ -1950,7 +1914,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>72</v>
       </c>
@@ -1961,7 +1925,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>73</v>
       </c>
@@ -1972,7 +1936,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>74</v>
       </c>
@@ -1983,7 +1947,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>75</v>
       </c>
@@ -1994,7 +1958,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>76</v>
       </c>
@@ -2005,7 +1969,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>77</v>
       </c>
@@ -2016,7 +1980,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>78</v>
       </c>
@@ -2027,7 +1991,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>80</v>
       </c>
@@ -2038,7 +2002,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>79</v>
       </c>
@@ -2049,7 +2013,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>81</v>
       </c>
@@ -2060,7 +2024,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>83</v>
       </c>
@@ -2071,7 +2035,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>85</v>
       </c>
@@ -2082,7 +2046,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>87</v>
       </c>
@@ -2093,7 +2057,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>89</v>
       </c>
@@ -2104,7 +2068,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>93</v>
       </c>
@@ -2115,7 +2079,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>92</v>
       </c>
@@ -2126,7 +2090,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>94</v>
       </c>
@@ -2137,7 +2101,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>96</v>
       </c>
@@ -2148,7 +2112,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>97</v>
       </c>
@@ -2159,7 +2123,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>98</v>
       </c>
@@ -2170,7 +2134,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>100</v>
       </c>
@@ -2181,7 +2145,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -2192,7 +2156,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>106</v>
       </c>
@@ -2203,7 +2167,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>107</v>
       </c>
@@ -2214,7 +2178,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -2225,7 +2189,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>111</v>
       </c>
@@ -2236,7 +2200,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>119</v>
       </c>
@@ -2247,7 +2211,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>112</v>
       </c>
@@ -2258,7 +2222,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>113</v>
       </c>
@@ -2269,7 +2233,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -2280,7 +2244,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -2291,7 +2255,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>121</v>
       </c>
@@ -2302,7 +2266,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>123</v>
       </c>
@@ -2313,7 +2277,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>125</v>
       </c>
@@ -2324,7 +2288,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>126</v>
       </c>
@@ -2335,7 +2299,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>128</v>
       </c>
@@ -2346,7 +2310,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>130</v>
       </c>
@@ -2357,7 +2321,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>131</v>
       </c>
@@ -2368,7 +2332,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>165</v>
       </c>
@@ -2379,7 +2343,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>166</v>
       </c>
@@ -2390,7 +2354,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>167</v>
       </c>
@@ -2401,7 +2365,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>168</v>
       </c>
@@ -2412,7 +2376,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>169</v>
       </c>
@@ -2423,7 +2387,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>170</v>
       </c>
@@ -2434,7 +2398,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>171</v>
       </c>
@@ -2445,7 +2409,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
         <v>172</v>
       </c>
@@ -2456,7 +2420,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
         <v>173</v>
       </c>
@@ -2467,7 +2431,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
         <v>175</v>
       </c>
@@ -2478,7 +2442,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
         <v>174</v>
       </c>
@@ -2489,7 +2453,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
         <v>176</v>
       </c>
@@ -2500,7 +2464,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
         <v>177</v>
       </c>
@@ -2511,7 +2475,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
         <v>178</v>
       </c>
@@ -2522,7 +2486,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>179</v>
       </c>
@@ -2533,7 +2497,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>180</v>
       </c>
@@ -2544,7 +2508,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>181</v>
       </c>
@@ -2555,7 +2519,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>182</v>
       </c>
@@ -2566,7 +2530,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>183</v>
       </c>
@@ -2577,7 +2541,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>184</v>
       </c>
@@ -2588,7 +2552,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>185</v>
       </c>
@@ -2599,7 +2563,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>190</v>
       </c>
@@ -2610,7 +2574,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>191</v>
       </c>
@@ -2621,7 +2585,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>192</v>
       </c>
@@ -2632,7 +2596,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>193</v>
       </c>
@@ -2643,7 +2607,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>194</v>
       </c>
@@ -2654,7 +2618,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>195</v>
       </c>
@@ -2665,7 +2629,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>196</v>
       </c>
@@ -2676,7 +2640,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>188</v>
       </c>
@@ -2687,7 +2651,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="20" t="s">
         <v>133</v>
       </c>
@@ -2698,7 +2662,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="16" t="s">
         <v>134</v>
       </c>
@@ -2709,7 +2673,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>135</v>
       </c>
@@ -2731,7 +2695,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>137</v>
       </c>
@@ -2753,7 +2717,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="20" t="s">
         <v>139</v>
       </c>
@@ -2764,7 +2728,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="20" t="s">
         <v>140</v>
       </c>
@@ -2775,7 +2739,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="20" t="s">
         <v>141</v>
       </c>
@@ -2786,7 +2750,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="20" t="s">
         <v>142</v>
       </c>
@@ -2797,7 +2761,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="18" t="s">
         <v>143</v>
       </c>
@@ -2808,7 +2772,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="18" t="s">
         <v>144</v>
       </c>
@@ -2841,7 +2805,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="18" t="s">
         <v>147</v>
       </c>
@@ -2852,7 +2816,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="18" t="s">
         <v>148</v>
       </c>
@@ -2896,7 +2860,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="18" t="s">
         <v>152</v>
       </c>
@@ -2907,7 +2871,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="18" t="s">
         <v>153</v>
       </c>
@@ -2918,7 +2882,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="18" t="s">
         <v>154</v>
       </c>
@@ -2929,7 +2893,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>155</v>
       </c>
@@ -2940,7 +2904,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>156</v>
       </c>
@@ -2951,7 +2915,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>157</v>
       </c>
@@ -2962,7 +2926,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>158</v>
       </c>
@@ -2973,7 +2937,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>159</v>
       </c>
@@ -2984,7 +2948,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>160</v>
       </c>
@@ -2995,7 +2959,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>161</v>
       </c>
@@ -3006,7 +2970,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>162</v>
       </c>
@@ -3017,7 +2981,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>163</v>
       </c>
@@ -3028,7 +2992,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>164</v>
       </c>
@@ -3039,7 +3003,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>186</v>
       </c>
@@ -3050,7 +3014,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>187</v>
       </c>
@@ -3061,7 +3025,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>197</v>
       </c>
@@ -3072,7 +3036,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>198</v>
       </c>
@@ -3083,7 +3047,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>199</v>
       </c>
@@ -3094,7 +3058,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>200</v>
       </c>
@@ -3105,7 +3069,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>201</v>
       </c>
@@ -3116,7 +3080,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>202</v>
       </c>
@@ -3127,7 +3091,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>203</v>
       </c>
@@ -3149,7 +3113,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>206</v>
       </c>
@@ -3160,7 +3124,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>208</v>
       </c>
@@ -3171,7 +3135,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>209</v>
       </c>
@@ -3182,7 +3146,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>210</v>
       </c>
@@ -3193,7 +3157,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>212</v>
       </c>
@@ -3204,7 +3168,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>214</v>
       </c>
@@ -3215,7 +3179,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>215</v>
       </c>
@@ -3226,7 +3190,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>216</v>
       </c>
@@ -3237,7 +3201,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>218</v>
       </c>
@@ -3248,7 +3212,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>219</v>
       </c>
@@ -3259,7 +3223,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>220</v>
       </c>
@@ -3270,7 +3234,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>222</v>
       </c>
@@ -3281,9 +3245,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B191" s="8" t="s">
         <v>217</v>
@@ -3292,25 +3256,32 @@
         <v>118</v>
       </c>
     </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>221</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B193" s="23"/>
       <c r="C193" s="2"/>
     </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B194" s="23"/>
       <c r="C194" s="2"/>
     </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B195" s="23"/>
       <c r="C195" s="2"/>
     </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B196" s="23"/>
       <c r="C196" s="2"/>
-    </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B197" s="23"/>
-      <c r="C197" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3324,7 +3295,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3336,7 +3307,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3348,7 +3319,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2376" windowWidth="8652" windowHeight="2880"/>
+    <workbookView xWindow="0" yWindow="2370" windowWidth="8655" windowHeight="2880"/>
   </bookViews>
   <sheets>
     <sheet name="FullSuite" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="225">
   <si>
     <t>Description</t>
   </si>
@@ -689,12 +694,15 @@
   </si>
   <si>
     <t>Payroll Recognition ScenarioSix201718</t>
+  </si>
+  <si>
+    <t>Create RTI Employees201718</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -895,7 +903,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -928,9 +936,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -963,6 +988,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1145,11 +1187,11 @@
       <selection activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.5546875" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="67.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -1177,7 +1219,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1188,7 +1230,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1199,7 +1241,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1210,7 +1252,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1221,7 +1263,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1232,7 +1274,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1243,7 +1285,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1254,7 +1296,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1265,7 +1307,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1276,7 +1318,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1287,7 +1329,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>15</v>
       </c>
@@ -1298,7 +1340,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
@@ -1309,7 +1351,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
@@ -1320,7 +1362,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>18</v>
       </c>
@@ -1331,7 +1373,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
@@ -1342,7 +1384,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>20</v>
       </c>
@@ -1353,7 +1395,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>21</v>
       </c>
@@ -1364,7 +1406,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>22</v>
       </c>
@@ -1375,7 +1417,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>23</v>
       </c>
@@ -1386,7 +1428,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>24</v>
       </c>
@@ -1397,7 +1439,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>25</v>
       </c>
@@ -1408,7 +1450,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>26</v>
       </c>
@@ -1419,7 +1461,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>27</v>
       </c>
@@ -1430,7 +1472,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>28</v>
       </c>
@@ -1441,7 +1483,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>29</v>
       </c>
@@ -1452,7 +1494,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>30</v>
       </c>
@@ -1463,7 +1505,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>31</v>
       </c>
@@ -1474,7 +1516,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>32</v>
       </c>
@@ -1485,7 +1527,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>33</v>
       </c>
@@ -1496,7 +1538,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>34</v>
       </c>
@@ -1507,7 +1549,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>35</v>
       </c>
@@ -1518,7 +1560,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>36</v>
       </c>
@@ -1529,7 +1571,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>37</v>
       </c>
@@ -1540,7 +1582,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>38</v>
       </c>
@@ -1551,7 +1593,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>39</v>
       </c>
@@ -1562,7 +1604,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>40</v>
       </c>
@@ -1573,7 +1615,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>41</v>
       </c>
@@ -1584,7 +1626,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>42</v>
       </c>
@@ -1595,7 +1637,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>43</v>
       </c>
@@ -1606,7 +1648,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>44</v>
       </c>
@@ -1617,7 +1659,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>45</v>
       </c>
@@ -1628,7 +1670,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>46</v>
       </c>
@@ -1639,7 +1681,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>47</v>
       </c>
@@ -1650,7 +1692,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>48</v>
       </c>
@@ -1661,7 +1703,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>49</v>
       </c>
@@ -1672,7 +1714,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>50</v>
       </c>
@@ -1694,7 +1736,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>52</v>
       </c>
@@ -1716,7 +1758,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>53</v>
       </c>
@@ -1727,7 +1769,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>55</v>
       </c>
@@ -1738,7 +1780,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>56</v>
       </c>
@@ -1749,7 +1791,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>57</v>
       </c>
@@ -1760,7 +1802,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>58</v>
       </c>
@@ -1771,7 +1813,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>59</v>
       </c>
@@ -1804,7 +1846,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>62</v>
       </c>
@@ -1815,7 +1857,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>63</v>
       </c>
@@ -1859,7 +1901,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>67</v>
       </c>
@@ -1870,7 +1912,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>68</v>
       </c>
@@ -1881,7 +1923,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>69</v>
       </c>
@@ -1892,7 +1934,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>70</v>
       </c>
@@ -1903,7 +1945,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>71</v>
       </c>
@@ -1914,7 +1956,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>72</v>
       </c>
@@ -1925,7 +1967,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>73</v>
       </c>
@@ -1936,7 +1978,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>74</v>
       </c>
@@ -1947,7 +1989,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>75</v>
       </c>
@@ -1958,7 +2000,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>76</v>
       </c>
@@ -1969,7 +2011,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>77</v>
       </c>
@@ -1980,7 +2022,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>78</v>
       </c>
@@ -1991,7 +2033,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>80</v>
       </c>
@@ -2002,7 +2044,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>79</v>
       </c>
@@ -2013,7 +2055,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>81</v>
       </c>
@@ -2024,7 +2066,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>83</v>
       </c>
@@ -2035,7 +2077,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>85</v>
       </c>
@@ -2046,7 +2088,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>87</v>
       </c>
@@ -2057,7 +2099,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>89</v>
       </c>
@@ -2068,7 +2110,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>93</v>
       </c>
@@ -2079,7 +2121,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>92</v>
       </c>
@@ -2090,7 +2132,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>94</v>
       </c>
@@ -2101,7 +2143,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>96</v>
       </c>
@@ -2112,7 +2154,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>97</v>
       </c>
@@ -2123,7 +2165,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>98</v>
       </c>
@@ -2134,7 +2176,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>100</v>
       </c>
@@ -2145,7 +2187,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -2156,7 +2198,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>106</v>
       </c>
@@ -2167,7 +2209,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>107</v>
       </c>
@@ -2178,7 +2220,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -2189,7 +2231,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>111</v>
       </c>
@@ -2200,7 +2242,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>119</v>
       </c>
@@ -2211,7 +2253,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>112</v>
       </c>
@@ -2222,7 +2264,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>113</v>
       </c>
@@ -2233,7 +2275,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -2244,7 +2286,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -2255,7 +2297,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>121</v>
       </c>
@@ -2266,7 +2308,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>123</v>
       </c>
@@ -2277,7 +2319,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>125</v>
       </c>
@@ -2288,7 +2330,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>126</v>
       </c>
@@ -2299,7 +2341,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>128</v>
       </c>
@@ -2310,7 +2352,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>130</v>
       </c>
@@ -2321,7 +2363,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>131</v>
       </c>
@@ -2332,7 +2374,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>165</v>
       </c>
@@ -2343,7 +2385,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>166</v>
       </c>
@@ -2354,7 +2396,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>167</v>
       </c>
@@ -2365,7 +2407,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>168</v>
       </c>
@@ -2376,7 +2418,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>169</v>
       </c>
@@ -2387,7 +2429,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>170</v>
       </c>
@@ -2398,7 +2440,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>171</v>
       </c>
@@ -2409,7 +2451,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
         <v>172</v>
       </c>
@@ -2420,7 +2462,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
         <v>173</v>
       </c>
@@ -2431,7 +2473,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
         <v>175</v>
       </c>
@@ -2442,7 +2484,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
         <v>174</v>
       </c>
@@ -2453,7 +2495,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
         <v>176</v>
       </c>
@@ -2464,7 +2506,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
         <v>177</v>
       </c>
@@ -2475,7 +2517,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
         <v>178</v>
       </c>
@@ -2486,7 +2528,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>179</v>
       </c>
@@ -2497,7 +2539,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>180</v>
       </c>
@@ -2508,7 +2550,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>181</v>
       </c>
@@ -2519,7 +2561,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>182</v>
       </c>
@@ -2530,7 +2572,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>183</v>
       </c>
@@ -2541,7 +2583,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>184</v>
       </c>
@@ -2552,7 +2594,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>185</v>
       </c>
@@ -2563,7 +2605,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>190</v>
       </c>
@@ -2574,7 +2616,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>191</v>
       </c>
@@ -2585,7 +2627,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>192</v>
       </c>
@@ -2596,7 +2638,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>193</v>
       </c>
@@ -2607,7 +2649,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>194</v>
       </c>
@@ -2618,7 +2660,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>195</v>
       </c>
@@ -2629,7 +2671,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>196</v>
       </c>
@@ -2640,7 +2682,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>188</v>
       </c>
@@ -2651,7 +2693,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="20" t="s">
         <v>133</v>
       </c>
@@ -2662,7 +2704,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="16" t="s">
         <v>134</v>
       </c>
@@ -2673,7 +2715,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>135</v>
       </c>
@@ -2695,7 +2737,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>137</v>
       </c>
@@ -2717,7 +2759,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="20" t="s">
         <v>139</v>
       </c>
@@ -2728,7 +2770,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="20" t="s">
         <v>140</v>
       </c>
@@ -2739,7 +2781,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="20" t="s">
         <v>141</v>
       </c>
@@ -2750,7 +2792,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="20" t="s">
         <v>142</v>
       </c>
@@ -2761,7 +2803,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="18" t="s">
         <v>143</v>
       </c>
@@ -2772,7 +2814,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="18" t="s">
         <v>144</v>
       </c>
@@ -2805,7 +2847,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="18" t="s">
         <v>147</v>
       </c>
@@ -2816,7 +2858,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="18" t="s">
         <v>148</v>
       </c>
@@ -2860,7 +2902,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="18" t="s">
         <v>152</v>
       </c>
@@ -2871,7 +2913,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="18" t="s">
         <v>153</v>
       </c>
@@ -2882,7 +2924,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="18" t="s">
         <v>154</v>
       </c>
@@ -2893,7 +2935,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>155</v>
       </c>
@@ -2904,7 +2946,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>156</v>
       </c>
@@ -2915,7 +2957,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>157</v>
       </c>
@@ -2926,7 +2968,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>158</v>
       </c>
@@ -2937,7 +2979,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>159</v>
       </c>
@@ -2948,7 +2990,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>160</v>
       </c>
@@ -2959,7 +3001,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>161</v>
       </c>
@@ -2970,7 +3012,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>162</v>
       </c>
@@ -2981,7 +3023,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>163</v>
       </c>
@@ -2992,7 +3034,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>164</v>
       </c>
@@ -3003,7 +3045,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>186</v>
       </c>
@@ -3014,7 +3056,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>187</v>
       </c>
@@ -3025,7 +3067,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>197</v>
       </c>
@@ -3036,7 +3078,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>198</v>
       </c>
@@ -3047,7 +3089,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>199</v>
       </c>
@@ -3058,7 +3100,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>200</v>
       </c>
@@ -3069,7 +3111,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>201</v>
       </c>
@@ -3080,7 +3122,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>202</v>
       </c>
@@ -3091,7 +3133,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>203</v>
       </c>
@@ -3113,7 +3155,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>206</v>
       </c>
@@ -3124,7 +3166,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>208</v>
       </c>
@@ -3135,7 +3177,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>209</v>
       </c>
@@ -3146,7 +3188,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>210</v>
       </c>
@@ -3157,7 +3199,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>212</v>
       </c>
@@ -3168,7 +3210,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>214</v>
       </c>
@@ -3179,7 +3221,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>215</v>
       </c>
@@ -3190,7 +3232,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>216</v>
       </c>
@@ -3201,7 +3243,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>218</v>
       </c>
@@ -3212,7 +3254,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>219</v>
       </c>
@@ -3223,7 +3265,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>220</v>
       </c>
@@ -3234,7 +3276,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>222</v>
       </c>
@@ -3245,7 +3287,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>223</v>
       </c>
@@ -3256,7 +3298,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>221</v>
       </c>
@@ -3267,19 +3309,26 @@
         <v>118</v>
       </c>
     </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B193" s="23"/>
-      <c r="C193" s="2"/>
-    </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>224</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B194" s="23"/>
       <c r="C194" s="2"/>
     </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B195" s="23"/>
       <c r="C195" s="2"/>
     </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B196" s="23"/>
       <c r="C196" s="2"/>
     </row>
@@ -3295,7 +3344,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3307,7 +3356,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3319,7 +3368,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1184,7 +1184,7 @@
   <dimension ref="A1:D196"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="B193" sqref="B193"/>
+      <selection activeCell="A196" sqref="A196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="227">
   <si>
     <t>Description</t>
   </si>
@@ -697,6 +697,12 @@
   </si>
   <si>
     <t>Create RTI Employees201718</t>
+  </si>
+  <si>
+    <t>Payroll Suite TaxMonth1CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>input script for payroll Tax 201819</t>
   </si>
 </sst>
 </file>
@@ -1183,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="A196" sqref="A196"/>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="F185" sqref="F185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3320,9 +3326,16 @@
         <v>118</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B194" s="23"/>
-      <c r="C194" s="2"/>
+    <row r="194" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>225</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B195" s="23"/>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="229">
   <si>
     <t>Description</t>
   </si>
@@ -703,6 +703,12 @@
   </si>
   <si>
     <t>input script for payroll Tax 201819</t>
+  </si>
+  <si>
+    <t>weekly input script for payroll Tax 201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite TaxWeek1CSBRNTK50PercentRegulatory201819</t>
   </si>
 </sst>
 </file>
@@ -1189,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="F185" sqref="F185"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="B197" sqref="B197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3337,9 +3343,16 @@
         <v>118</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B195" s="23"/>
-      <c r="C195" s="2"/>
+    <row r="195" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>228</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B196" s="23"/>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="231">
   <si>
     <t>Description</t>
   </si>
@@ -709,6 +709,12 @@
   </si>
   <si>
     <t>Payroll Suite TaxWeek1CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite TaxGeneralAndLargeTaxcodeMonthly201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite TaxGeneralAndLargeTaxcodeWeekly201819</t>
   </si>
 </sst>
 </file>
@@ -804,7 +810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -850,9 +856,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1193,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D196"/>
+  <dimension ref="A1:D197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="B197" sqref="B197"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3354,9 +3357,27 @@
         <v>118</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B196" s="23"/>
-      <c r="C196" s="2"/>
+    <row r="196" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>229</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>230</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="230">
   <si>
     <t>Description</t>
   </si>
@@ -709,6 +709,9 @@
   </si>
   <si>
     <t>Payroll Suite TaxWeek1CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite TaxMonth2CSBRNTK50PercentRegulatory201819</t>
   </si>
 </sst>
 </file>
@@ -804,7 +807,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -850,9 +853,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1196,7 +1196,7 @@
   <dimension ref="A1:D196"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="B197" sqref="B197"/>
+      <selection activeCell="C196" sqref="C196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3354,9 +3354,16 @@
         <v>118</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B196" s="23"/>
-      <c r="C196" s="2"/>
+    <row r="196" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>229</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -1,6 +1,28 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="2370" windowWidth="8655" windowHeight="2880"/>
+  </bookViews>
+  <sheets>
+    <sheet name="FullSuite" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
+</file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="238">
   <si>
     <t>Description</t>
   </si>
@@ -689,10 +711,31 @@
     <t>Payroll Suite TaxWeek1CSBRNTK50PercentRegulatory201819</t>
   </si>
   <si>
-    <t>Payroll Suite TaxGeneralAndLargeTaxcodeMonthly201819</t>
-  </si>
-  <si>
-    <t>Payroll Suite TaxGeneralAndLargeTaxcodeWeekly201819</t>
+    <t>Payroll Suite TaxMonth2CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite TaxMonth3CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite TaxMonth4CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite TaxMonth5CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite TaxMonth6CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite TaxMonth7CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite TaxMonth8CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite TaxMonth9CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite TaxMonth10CSBRNTK50PercentRegulatory201819</t>
   </si>
 </sst>
 </file>
@@ -851,4 +894,2627 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D204"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="A204" sqref="A204"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>94</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>100</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>103</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>106</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>107</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>109</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>111</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>119</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>112</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>115</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>116</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>121</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>123</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>125</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>126</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>128</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>130</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>131</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>188</v>
+      </c>
+      <c r="B136" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B137" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B138" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B143" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B144" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B145" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B146" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B149" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B150" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B151" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B152" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B153" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B154" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B155" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B156" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B157" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B158" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>197</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>198</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>199</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>200</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>201</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>202</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>203</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>204</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>206</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>208</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>209</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>210</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>212</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>214</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>215</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>216</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>218</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>219</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>220</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>222</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>223</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>221</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>224</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>225</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>228</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>229</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>230</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>231</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>232</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>233</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>234</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>235</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>236</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>237</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="249">
   <si>
     <t>Description</t>
   </si>
@@ -736,6 +736,39 @@
   </si>
   <si>
     <t>Payroll Suite TaxMonth10CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite TaxWeek2CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite TaxWeek3CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite TaxWeek4CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite TaxWeek5CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite TaxWeek6CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite TaxWeek7CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite TaxWeek8CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite TaxWeek9CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite TaxWeek10CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite GeneralAndLargeTaxcodeMonthly201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite GeneralAndLargeTaxcodeWeekly201819</t>
   </si>
 </sst>
 </file>
@@ -1217,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="A204" sqref="A204"/>
+    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="F215" sqref="F215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3369,10 +3402,10 @@
     </row>
     <row r="195" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>118</v>
@@ -3380,10 +3413,10 @@
     </row>
     <row r="196" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>118</v>
@@ -3391,7 +3424,7 @@
     </row>
     <row r="197" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B197" s="8" t="s">
         <v>227</v>
@@ -3402,7 +3435,7 @@
     </row>
     <row r="198" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B198" s="8" t="s">
         <v>227</v>
@@ -3413,7 +3446,7 @@
     </row>
     <row r="199" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B199" s="8" t="s">
         <v>227</v>
@@ -3424,7 +3457,7 @@
     </row>
     <row r="200" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B200" s="8" t="s">
         <v>227</v>
@@ -3435,7 +3468,7 @@
     </row>
     <row r="201" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B201" s="8" t="s">
         <v>227</v>
@@ -3446,7 +3479,7 @@
     </row>
     <row r="202" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B202" s="8" t="s">
         <v>227</v>
@@ -3457,7 +3490,7 @@
     </row>
     <row r="203" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B203" s="8" t="s">
         <v>227</v>
@@ -3468,12 +3501,133 @@
     </row>
     <row r="204" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B204" s="8" t="s">
         <v>227</v>
       </c>
       <c r="C204" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>238</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>239</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>240</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>241</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>242</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>243</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>244</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>245</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>246</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="B214" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B215" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C215" s="2" t="s">
         <v>118</v>
       </c>
     </row>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -765,10 +765,10 @@
     <t>Payroll Suite TaxWeek10CSBRNTK50PercentRegulatory201819</t>
   </si>
   <si>
-    <t>Payroll Suite GeneralAndLargeTaxcodeMonthly201819</t>
-  </si>
-  <si>
-    <t>Payroll Suite GeneralAndLargeTaxcodeWeekly201819</t>
+    <t>Payroll Suite TaxGeneralAndLargeTaxcodeMonthly201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite TaxGeneralAndLargeTaxcodeWeekly201819</t>
   </si>
 </sst>
 </file>
@@ -1253,7 +1253,7 @@
   <dimension ref="A1:D215"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="F215" sqref="F215"/>
+      <selection activeCell="F207" sqref="F207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="250">
   <si>
     <t>Description</t>
   </si>
@@ -769,6 +769,9 @@
   </si>
   <si>
     <t>Payroll Suite TaxGeneralAndLargeTaxcodeWeekly201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite WeeklyCatA201819</t>
   </si>
 </sst>
 </file>
@@ -784,7 +787,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -851,6 +854,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -864,7 +897,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -910,6 +943,30 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1250,10 +1307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D215"/>
+  <dimension ref="A1:D224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="F207" sqref="F207"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="A220" sqref="A220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1762,10 +1819,10 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="10" t="s">
         <v>82</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -1773,10 +1830,10 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="10" t="s">
         <v>82</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -1784,10 +1841,10 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="33" t="s">
         <v>82</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -1795,10 +1852,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="33" t="s">
         <v>82</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -1806,10 +1863,10 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="33" t="s">
         <v>82</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -1817,10 +1874,10 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="33" t="s">
         <v>82</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -1828,10 +1885,10 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -1839,10 +1896,10 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -1850,10 +1907,10 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -1861,10 +1918,10 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -1872,10 +1929,10 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="34" t="s">
         <v>82</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -1883,10 +1940,10 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="34" t="s">
         <v>82</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -1894,10 +1951,10 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="34" t="s">
         <v>82</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -1905,10 +1962,10 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="34" t="s">
         <v>82</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -1916,10 +1973,10 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="34" t="s">
         <v>82</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -1927,10 +1984,10 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="34" t="s">
         <v>82</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -1938,10 +1995,10 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="34" t="s">
         <v>82</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -1949,10 +2006,10 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="34" t="s">
         <v>82</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -1960,10 +2017,10 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="34" t="s">
         <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -1971,10 +2028,10 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="34" t="s">
         <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -1982,10 +2039,10 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="34" t="s">
         <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -1993,10 +2050,10 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="34" t="s">
         <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -3137,10 +3194,10 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="A171" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B171" s="8" t="s">
+      <c r="B171" s="10" t="s">
         <v>82</v>
       </c>
       <c r="C171" s="2" t="s">
@@ -3148,10 +3205,10 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="A172" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B172" s="8" t="s">
+      <c r="B172" s="10" t="s">
         <v>82</v>
       </c>
       <c r="C172" s="2" t="s">
@@ -3159,10 +3216,10 @@
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="A173" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B173" s="8" t="s">
+      <c r="B173" s="10" t="s">
         <v>82</v>
       </c>
       <c r="C173" s="2" t="s">
@@ -3170,10 +3227,10 @@
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="A174" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B174" s="8" t="s">
+      <c r="B174" s="10" t="s">
         <v>82</v>
       </c>
       <c r="C174" s="2" t="s">
@@ -3181,10 +3238,10 @@
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="A175" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B175" s="8" t="s">
+      <c r="B175" s="10" t="s">
         <v>82</v>
       </c>
       <c r="C175" s="2" t="s">
@@ -3192,10 +3249,10 @@
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="A176" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B176" s="8" t="s">
+      <c r="B176" s="10" t="s">
         <v>82</v>
       </c>
       <c r="C176" s="2" t="s">
@@ -3203,10 +3260,10 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="A177" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B177" s="8" t="s">
+      <c r="B177" s="10" t="s">
         <v>82</v>
       </c>
       <c r="C177" s="2" t="s">
@@ -3214,10 +3271,10 @@
       </c>
     </row>
     <row r="178" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="A178" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="B178" s="8" t="s">
+      <c r="B178" s="30" t="s">
         <v>205</v>
       </c>
       <c r="C178" s="2" t="s">
@@ -3225,10 +3282,10 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="A179" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="B179" s="8" t="s">
+      <c r="B179" s="30" t="s">
         <v>207</v>
       </c>
       <c r="C179" s="2" t="s">
@@ -3236,10 +3293,10 @@
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="A180" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="B180" s="8" t="s">
+      <c r="B180" s="30" t="s">
         <v>129</v>
       </c>
       <c r="C180" s="2" t="s">
@@ -3247,10 +3304,10 @@
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="A181" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="B181" s="8" t="s">
+      <c r="B181" s="30" t="s">
         <v>127</v>
       </c>
       <c r="C181" s="2" t="s">
@@ -3258,10 +3315,10 @@
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="A182" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="B182" s="8" t="s">
+      <c r="B182" s="30" t="s">
         <v>211</v>
       </c>
       <c r="C182" s="2" t="s">
@@ -3269,10 +3326,10 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="A183" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="B183" s="8" t="s">
+      <c r="B183" s="30" t="s">
         <v>213</v>
       </c>
       <c r="C183" s="2" t="s">
@@ -3280,10 +3337,10 @@
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="A184" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="B184" s="8" t="s">
+      <c r="B184" s="30" t="s">
         <v>189</v>
       </c>
       <c r="C184" s="2" t="s">
@@ -3291,10 +3348,10 @@
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="A185" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="B185" s="8" t="s">
+      <c r="B185" s="30" t="s">
         <v>117</v>
       </c>
       <c r="C185" s="2" t="s">
@@ -3302,310 +3359,310 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="A186" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="B186" s="8" t="s">
+      <c r="B186" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C186" s="27" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="A187" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="B187" s="8" t="s">
+      <c r="B187" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" s="27" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="A188" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="B188" s="8" t="s">
+      <c r="B188" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" s="27" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="A189" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="B189" s="8" t="s">
+      <c r="B189" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="27" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="A190" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="B190" s="8" t="s">
+      <c r="B190" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" s="27" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="A191" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="B191" s="8" t="s">
+      <c r="B191" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C191" s="27" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="A192" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="B192" s="8" t="s">
+      <c r="B192" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" s="27" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="A193" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="B193" s="8" t="s">
+      <c r="B193" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C193" s="27" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="A194" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="B194" s="8" t="s">
+      <c r="B194" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C194" s="27" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="A195" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B195" s="8" t="s">
+      <c r="B195" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C195" s="27" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="A196" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B196" s="8" t="s">
+      <c r="B196" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" s="27" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="A197" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B197" s="8" t="s">
+      <c r="B197" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C197" s="27" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="A198" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B198" s="8" t="s">
+      <c r="B198" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C198" s="27" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="A199" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B199" s="8" t="s">
+      <c r="B199" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C199" s="27" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="A200" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B200" s="8" t="s">
+      <c r="B200" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C200" s="27" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="A201" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B201" s="8" t="s">
+      <c r="B201" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="C201" s="27" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="A202" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B202" s="8" t="s">
+      <c r="B202" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C202" s="27" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="A203" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B203" s="8" t="s">
+      <c r="B203" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C203" s="27" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="A204" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="B204" s="8" t="s">
+      <c r="B204" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C204" s="27" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="A205" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="B205" s="8" t="s">
+      <c r="B205" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="C205" s="27" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="A206" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="B206" s="8" t="s">
+      <c r="B206" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="C206" s="27" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="A207" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="B207" s="8" t="s">
+      <c r="B207" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C207" s="27" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="A208" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="B208" s="8" t="s">
+      <c r="B208" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C208" s="27" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="A209" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="B209" s="8" t="s">
+      <c r="B209" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="C209" s="27" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="A210" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="B210" s="8" t="s">
+      <c r="B210" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C210" s="27" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="A211" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="B211" s="8" t="s">
+      <c r="B211" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="C211" s="27" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="A212" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="B212" s="8" t="s">
+      <c r="B212" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="C212" s="27" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="A213" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="B213" s="8" t="s">
+      <c r="B213" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="C213" s="27" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3616,7 +3673,7 @@
       <c r="B214" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="C214" s="27" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3627,9 +3684,44 @@
       <c r="B215" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>118</v>
-      </c>
+      <c r="C215" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C216" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C217" s="28"/>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C218" s="28"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C219" s="28"/>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C220" s="28"/>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C221" s="28"/>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C222" s="28"/>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C223" s="28"/>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C224" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="277">
   <si>
     <t>Description</t>
   </si>
@@ -772,6 +772,87 @@
   </si>
   <si>
     <t>Payroll Suite WeeklyCatA201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite WeeklyCatB201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite WeeklyCatC201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite WeeklyCatH201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite WeeklyCatJ201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite WeeklyCatM201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite WeeklyCatZ201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite 2WeeklyCatA201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite 2WeeklyCatB201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite 2WeeklyCatC201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite 2WeeklyCatH201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite 2WeeklyCatJ201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite 2WeeklyCatM201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite 2WeeklyCatZ201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite 4WeeklyCatA201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite 4WeeklyCatB201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite 4WeeklyCatC201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite 4WeeklyCatH201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite 4WeeklyCatJ201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite 4WeeklyCatM201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite 4WeeklyCatZ201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite MonthlyCatA201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite MonthlyCatB201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite MonthlyCatC201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite MonthlyCatH201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite MonthlyCatJ201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite MonthlyCatM201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite MonthlyCatZ201819</t>
   </si>
 </sst>
 </file>
@@ -897,7 +978,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -956,7 +1037,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1307,10 +1387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D224"/>
+  <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="A220" sqref="A220"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="G213" sqref="G213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1841,10 +1921,10 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="32" t="s">
+      <c r="A48" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="32" t="s">
         <v>82</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -1852,10 +1932,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="32" t="s">
         <v>82</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -1863,10 +1943,10 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="33" t="s">
+      <c r="B50" s="32" t="s">
         <v>82</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -1874,10 +1954,10 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="32" t="s">
+      <c r="A51" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="32" t="s">
         <v>82</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -1929,10 +2009,10 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="34" t="s">
+      <c r="B56" s="33" t="s">
         <v>82</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -1940,10 +2020,10 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="33" t="s">
         <v>82</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -1951,10 +2031,10 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="34" t="s">
+      <c r="B58" s="33" t="s">
         <v>82</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -1962,10 +2042,10 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="33" t="s">
         <v>82</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -1973,10 +2053,10 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="33" t="s">
         <v>82</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -1984,10 +2064,10 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="33" t="s">
         <v>82</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -1995,10 +2075,10 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="B62" s="33" t="s">
         <v>82</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -2006,10 +2086,10 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="31" t="s">
+      <c r="A63" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="33" t="s">
         <v>82</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -2017,10 +2097,10 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="31" t="s">
+      <c r="A64" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="34" t="s">
+      <c r="B64" s="33" t="s">
         <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -2028,10 +2108,10 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="31" t="s">
+      <c r="A65" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="34" t="s">
+      <c r="B65" s="33" t="s">
         <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -2039,10 +2119,10 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="31" t="s">
+      <c r="A66" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="34" t="s">
+      <c r="B66" s="33" t="s">
         <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -2050,10 +2130,10 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="31" t="s">
+      <c r="A67" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B67" s="34" t="s">
+      <c r="B67" s="33" t="s">
         <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -3271,10 +3351,10 @@
       </c>
     </row>
     <row r="178" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="29" t="s">
+      <c r="A178" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="B178" s="30" t="s">
+      <c r="B178" s="29" t="s">
         <v>205</v>
       </c>
       <c r="C178" s="2" t="s">
@@ -3282,10 +3362,10 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="29" t="s">
+      <c r="A179" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="B179" s="30" t="s">
+      <c r="B179" s="29" t="s">
         <v>207</v>
       </c>
       <c r="C179" s="2" t="s">
@@ -3293,10 +3373,10 @@
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="29" t="s">
+      <c r="A180" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="B180" s="30" t="s">
+      <c r="B180" s="29" t="s">
         <v>129</v>
       </c>
       <c r="C180" s="2" t="s">
@@ -3304,10 +3384,10 @@
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="29" t="s">
+      <c r="A181" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="B181" s="30" t="s">
+      <c r="B181" s="29" t="s">
         <v>127</v>
       </c>
       <c r="C181" s="2" t="s">
@@ -3315,10 +3395,10 @@
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="29" t="s">
+      <c r="A182" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="B182" s="30" t="s">
+      <c r="B182" s="29" t="s">
         <v>211</v>
       </c>
       <c r="C182" s="2" t="s">
@@ -3326,10 +3406,10 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="29" t="s">
+      <c r="A183" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="B183" s="30" t="s">
+      <c r="B183" s="29" t="s">
         <v>213</v>
       </c>
       <c r="C183" s="2" t="s">
@@ -3337,10 +3417,10 @@
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="29" t="s">
+      <c r="A184" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="B184" s="30" t="s">
+      <c r="B184" s="29" t="s">
         <v>189</v>
       </c>
       <c r="C184" s="2" t="s">
@@ -3348,10 +3428,10 @@
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="29" t="s">
+      <c r="A185" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="B185" s="30" t="s">
+      <c r="B185" s="29" t="s">
         <v>117</v>
       </c>
       <c r="C185" s="2" t="s">
@@ -3700,28 +3780,301 @@
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C217" s="28"/>
+      <c r="A217" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C218" s="28"/>
+      <c r="A218" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C219" s="28"/>
+      <c r="A219" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C220" s="28"/>
+      <c r="A220" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C221" s="28"/>
+      <c r="A221" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C222" s="28"/>
+      <c r="A222" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C223" s="28"/>
+      <c r="A223" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B223" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C224" s="28"/>
+      <c r="A224" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B224" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B225" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B226" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B227" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B228" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B229" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B230" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B231" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B232" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B233" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B234" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B235" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B236" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1389,8 +1389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="G213" sqref="G213"/>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="B215" sqref="B215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3750,8 +3750,8 @@
       <c r="A214" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="B214" s="21" t="s">
-        <v>82</v>
+      <c r="B214" s="20" t="s">
+        <v>247</v>
       </c>
       <c r="C214" s="27" t="s">
         <v>118</v>
@@ -3761,8 +3761,8 @@
       <c r="A215" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="B215" s="17" t="s">
-        <v>82</v>
+      <c r="B215" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="C215" s="27" t="s">
         <v>118</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="281">
   <si>
     <t>Description</t>
   </si>
@@ -853,6 +853,18 @@
   </si>
   <si>
     <t>Payroll Suite MonthlyCatZ201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite ScottishTaxGeneralAndLargeTaxcodeMonthly201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite ScottishTaxGeneralAndLargeTaxcodeWeekly201819</t>
+  </si>
+  <si>
+    <t>executes Scottish Monthly Genral&amp;LargeTaxcode scenario</t>
+  </si>
+  <si>
+    <t>executes Scottish Weekly Genral&amp;LargeTaxcode scenario</t>
   </si>
 </sst>
 </file>
@@ -1387,10 +1399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D243"/>
+  <dimension ref="A1:D245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="B215" sqref="B215"/>
+    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="F241" sqref="F241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4073,6 +4085,28 @@
         <v>82</v>
       </c>
       <c r="C243" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A244" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B244" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C244" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A245" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C245" s="27" t="s">
         <v>118</v>
       </c>
     </row>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="303">
   <si>
     <t>Description</t>
   </si>
@@ -865,6 +865,72 @@
   </si>
   <si>
     <t>executes Scottish Weekly Genral&amp;LargeTaxcode scenario</t>
+  </si>
+  <si>
+    <t>Payroll Suite ScottishTaxMonth1CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>executes ScottishTaxMonth1CSBRNTK50PercentRegulatory201819 scenario</t>
+  </si>
+  <si>
+    <t>Payroll Suite ScottishTaxMonth2CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite ScottishTaxMonth3CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite ScottishTaxMonth4CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite ScottishTaxMonth5CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite ScottishTaxMonth6CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite ScottishTaxMonth7CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite ScottishTaxMonth8CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite ScottishTaxMonth9CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite ScottishTaxMonth10CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite ScottishTaxMonth11CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>executes ScottishTaxMonth2CSBRNTK50PercentRegulatory201819 scenario</t>
+  </si>
+  <si>
+    <t>executes ScottishTaxMonth3CSBRNTK50PercentRegulatory201819 scenario</t>
+  </si>
+  <si>
+    <t>executes ScottishTaxMonth4CSBRNTK50PercentRegulatory201819 scenario</t>
+  </si>
+  <si>
+    <t>executes ScottishTaxMonth5CSBRNTK50PercentRegulatory201819 scenario</t>
+  </si>
+  <si>
+    <t>executes ScottishTaxMonth6CSBRNTK50PercentRegulatory201819 scenario</t>
+  </si>
+  <si>
+    <t>executes ScottishTaxMonth7CSBRNTK50PercentRegulatory201819 scenario</t>
+  </si>
+  <si>
+    <t>executes ScottishTaxMonth8CSBRNTK50PercentRegulatory201819 scenario</t>
+  </si>
+  <si>
+    <t>executes ScottishTaxMonth9CSBRNTK50PercentRegulatory201819 scenario</t>
+  </si>
+  <si>
+    <t>executes ScottishTaxMonth10CSBRNTK50PercentRegulatory201819 scenario</t>
+  </si>
+  <si>
+    <t>executes ScottishTaxMonth11CSBRNTK50PercentRegulatory201819 scenario</t>
   </si>
 </sst>
 </file>
@@ -1399,16 +1465,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D245"/>
+  <dimension ref="A1:D256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="F241" sqref="F241"/>
+    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
+      <selection activeCell="G253" sqref="G253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="67.5703125" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4088,7 +4154,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
         <v>277</v>
       </c>
@@ -4099,7 +4165,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
         <v>278</v>
       </c>
@@ -4107,6 +4173,127 @@
         <v>280</v>
       </c>
       <c r="C245" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B246" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C246" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A247" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C247" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A248" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C248" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A249" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C249" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A250" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C250" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A251" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C251" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A252" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C252" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A253" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C253" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A254" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C254" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A255" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C255" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A256" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C256" s="27" t="s">
         <v>118</v>
       </c>
     </row>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="315">
   <si>
     <t>Description</t>
   </si>
@@ -931,6 +931,42 @@
   </si>
   <si>
     <t>executes ScottishTaxMonth11CSBRNTK50PercentRegulatory201819 scenario</t>
+  </si>
+  <si>
+    <t>Payroll Suite ScottishTaxWeek1CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite ScottishTaxWeek2CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite ScottishTaxWeek3CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite ScottishTaxWeek4CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite ScottishTaxWeek5CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite ScottishTaxWeek6CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite ScottishTaxWeek7CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite ScottishTaxWeek8CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite ScottishTaxWeek9CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite ScottishTaxWeek10CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite ScottishTaxWeek11CSBRNTK50PercentRegulatory201819</t>
+  </si>
+  <si>
+    <t>executes ScottishTaxWeek1CSBRNTK50PercentRegulatory201819 scenario</t>
   </si>
 </sst>
 </file>
@@ -1465,10 +1501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D256"/>
+  <dimension ref="A1:D267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
-      <selection activeCell="G253" sqref="G253"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="E259" sqref="E259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4294,6 +4330,127 @@
         <v>302</v>
       </c>
       <c r="C256" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A257" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C257" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A258" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B258" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C258" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A259" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B259" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C259" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A260" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B260" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C260" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A261" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C261" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A262" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C262" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A263" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C263" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A264" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B264" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C264" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A265" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C265" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A266" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C266" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A267" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C267" s="27" t="s">
         <v>118</v>
       </c>
     </row>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="317">
   <si>
     <t>Description</t>
   </si>
@@ -967,6 +967,12 @@
   </si>
   <si>
     <t>executes ScottishTaxWeek1CSBRNTK50PercentRegulatory201819 scenario</t>
+  </si>
+  <si>
+    <t>Payroll Suite StatutoryMaternityPay201819</t>
+  </si>
+  <si>
+    <t>executes Payroll Suite StatutoryMaternityPay201819 Scenario</t>
   </si>
 </sst>
 </file>
@@ -1501,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D267"/>
+  <dimension ref="A1:D268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="E259" sqref="E259"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="A270" sqref="A270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4451,6 +4457,17 @@
         <v>314</v>
       </c>
       <c r="C267" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A268" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C268" s="27" t="s">
         <v>118</v>
       </c>
     </row>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -1509,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="A270" sqref="A270"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="F267" sqref="F267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="321">
   <si>
     <t>Description</t>
   </si>
@@ -973,6 +973,18 @@
   </si>
   <si>
     <t>executes Payroll Suite StatutoryMaternityPay201819 Scenario</t>
+  </si>
+  <si>
+    <t>Payroll Suite Statutory Adoption PaternityPay201819</t>
+  </si>
+  <si>
+    <t>executes Payroll Suite  Statutory Adoption PaternityPay201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite Statutory Shared ParentalPay201819</t>
+  </si>
+  <si>
+    <t>executes Payroll Suite Statutory Shared ParentalPay201819</t>
   </si>
 </sst>
 </file>
@@ -1507,10 +1519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D268"/>
+  <dimension ref="A1:D270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="F267" sqref="F267"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="C274" sqref="C274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4468,6 +4480,28 @@
         <v>316</v>
       </c>
       <c r="C268" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A269" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B269" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C269" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A270" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B270" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C270" s="27" t="s">
         <v>118</v>
       </c>
     </row>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{28AA7909-FB0E-40FE-B5DD-B3445B7FFC87}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2370" windowWidth="8655" windowHeight="2880"/>
+    <workbookView xWindow="0" yWindow="2370" windowWidth="8655" windowHeight="2880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FullSuite" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="322">
   <si>
     <t>Description</t>
   </si>
@@ -985,12 +986,15 @@
   </si>
   <si>
     <t>executes Payroll Suite Statutory Shared ParentalPay201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite StatutoryAdoptionPay201819</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1518,11 +1522,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D270"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="C274" sqref="C274"/>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="B278" sqref="B278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4505,6 +4509,17 @@
         <v>118</v>
       </c>
     </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="B271" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4512,7 +4527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4524,7 +4539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4536,7 +4551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{28AA7909-FB0E-40FE-B5DD-B3445B7FFC87}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{AC542308-EF37-49E5-A018-5D81CA559BDB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2370" windowWidth="8655" windowHeight="2880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="323">
   <si>
     <t>Description</t>
   </si>
@@ -989,6 +989,9 @@
   </si>
   <si>
     <t>Payroll Suite StatutoryAdoptionPay201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite StatutoryPaternityPay201819</t>
   </si>
 </sst>
 </file>
@@ -1523,10 +1526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D271"/>
+  <dimension ref="A1:D272"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="B278" sqref="B278"/>
+      <selection activeCell="A273" sqref="A273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4517,6 +4520,17 @@
         <v>129</v>
       </c>
       <c r="C271" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="B272" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C272" s="2" t="s">
         <v>118</v>
       </c>
     </row>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{AC542308-EF37-49E5-A018-5D81CA559BDB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9734F815-08EB-4B4E-953F-4F364FAC09D6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2370" windowWidth="8655" windowHeight="2880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="324">
   <si>
     <t>Description</t>
   </si>
@@ -992,6 +992,9 @@
   </si>
   <si>
     <t>Payroll Suite StatutoryPaternityPay201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite StatutoryPaternityPayCase2201819</t>
   </si>
 </sst>
 </file>
@@ -1526,10 +1529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D272"/>
+  <dimension ref="A1:D273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="A273" sqref="A273"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="E271" sqref="E271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4531,6 +4534,17 @@
         <v>127</v>
       </c>
       <c r="C272" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B273" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C273" s="2" t="s">
         <v>118</v>
       </c>
     </row>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9734F815-08EB-4B4E-953F-4F364FAC09D6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{34FF88DA-F1C8-435D-9C05-CE52564D2308}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2370" windowWidth="8655" windowHeight="2880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="325">
   <si>
     <t>Description</t>
   </si>
@@ -995,6 +995,9 @@
   </si>
   <si>
     <t>Payroll Suite StatutoryPaternityPayCase2201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite Statutory SSP2201819</t>
   </si>
 </sst>
 </file>
@@ -1529,10 +1532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D273"/>
+  <dimension ref="A1:D274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="E271" sqref="E271"/>
+    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
+      <selection activeCell="D274" sqref="D274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4545,6 +4548,17 @@
         <v>211</v>
       </c>
       <c r="C273" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>324</v>
+      </c>
+      <c r="B274" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C274" s="2" t="s">
         <v>118</v>
       </c>
     </row>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{34FF88DA-F1C8-435D-9C05-CE52564D2308}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F8039E16-108F-424E-B7B9-7C3DF6008A73}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2370" windowWidth="8655" windowHeight="2880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="326">
   <si>
     <t>Description</t>
   </si>
@@ -998,6 +998,9 @@
   </si>
   <si>
     <t>Payroll Suite Statutory SSP2201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite Statutory SSP201819</t>
   </si>
 </sst>
 </file>
@@ -1532,10 +1535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D274"/>
+  <dimension ref="A1:D275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
-      <selection activeCell="D274" sqref="D274"/>
+    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
+      <selection activeCell="E275" sqref="E275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4559,6 +4562,17 @@
         <v>211</v>
       </c>
       <c r="C274" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>325</v>
+      </c>
+      <c r="B275" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C275" s="2" t="s">
         <v>118</v>
       </c>
     </row>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{28AA7909-FB0E-40FE-B5DD-B3445B7FFC87}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2370" windowWidth="8655" windowHeight="2880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2370" windowWidth="8655" windowHeight="2880"/>
   </bookViews>
   <sheets>
     <sheet name="FullSuite" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="324">
   <si>
     <t>Description</t>
   </si>
@@ -989,12 +988,18 @@
   </si>
   <si>
     <t>Payroll Suite StatutoryAdoptionPay201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite Statutory SSP201819</t>
+  </si>
+  <si>
+    <t>ddf1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1522,11 +1527,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D271"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="B278" sqref="B278"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="C276" sqref="C276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4520,6 +4525,17 @@
         <v>118</v>
       </c>
     </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="B272" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4527,7 +4543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4539,7 +4555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4551,7 +4567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -1,3 +1,26 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Automation metrix template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F1B2C38B-ED54-4F2F-AFB8-17C71A5B334F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="FullSuite" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
+</file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="326">
@@ -1189,4 +1212,3408 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D275"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="I268" sqref="I268"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.5703125" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>94</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>100</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>103</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>106</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>107</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>109</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>111</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>119</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>112</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>115</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>116</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>121</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>123</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>125</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>126</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>128</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>130</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>131</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>188</v>
+      </c>
+      <c r="B136" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B137" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B138" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B143" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B144" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B145" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B146" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B149" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B150" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B151" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B152" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B153" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B154" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B155" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B156" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B157" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B158" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="B178" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="B179" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="B180" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="B181" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="B182" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="B183" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="B184" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="B185" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="B186" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C186" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B187" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C187" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="B188" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C188" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B189" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C189" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="B190" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C190" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="B191" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C191" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B192" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C192" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="B193" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C193" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A194" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C194" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C195" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C196" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A197" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C197" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A198" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C198" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A199" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C199" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A200" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C200" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A201" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C201" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A202" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C202" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A203" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C203" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A204" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="B204" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C204" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A205" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="B205" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C205" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A206" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B206" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C206" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A207" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="B207" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C207" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A208" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="B208" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C208" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A209" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="B209" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C209" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A210" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="B210" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C210" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A211" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="B211" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C211" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A212" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="B212" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C212" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A213" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="B213" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C213" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="B214" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C214" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B215" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C215" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C216" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B223" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B224" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B225" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B226" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B227" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B228" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B229" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B230" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B231" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B232" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B233" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B234" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B235" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B236" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B244" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C244" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C245" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B246" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C246" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A247" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C247" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A248" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C248" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A249" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C249" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A250" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C250" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A251" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C251" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A252" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C252" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A253" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C253" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A254" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C254" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A255" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C255" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A256" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C256" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A257" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C257" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A258" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B258" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C258" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A259" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B259" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C259" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A260" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B260" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C260" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A261" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C261" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A262" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C262" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A263" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C263" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A264" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B264" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C264" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A265" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C265" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A266" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C266" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A267" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C267" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A268" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="B268" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="C268" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A269" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="B269" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="C269" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A270" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="B270" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="C270" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="B271" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="B272" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B273" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="B274" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B275" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Automation metrix template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F1B2C38B-ED54-4F2F-AFB8-17C71A5B334F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{97C2755A-E3F4-4CD8-88C1-BE581D65D6CD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1537,8 +1537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="I268" sqref="I268"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="C237" sqref="C237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{97C2755A-E3F4-4CD8-88C1-BE581D65D6CD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E245ABDA-A432-41CE-918D-2590D70896F6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="328">
   <si>
     <t>Description</t>
   </si>
@@ -1001,6 +1001,12 @@
   </si>
   <si>
     <t>Payroll Suite Statutory SSP201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite CourtOrder AEO1971civildebt 201819</t>
+  </si>
+  <si>
+    <t>hhg</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1022,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1113,6 +1119,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1126,7 +1138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1195,6 +1207,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1535,10 +1551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D275"/>
+  <dimension ref="A1:D276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="C237" sqref="C237"/>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="B279" sqref="B279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4573,6 +4589,17 @@
         <v>211</v>
       </c>
       <c r="C275" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="B276" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C276" s="2" t="s">
         <v>118</v>
       </c>
     </row>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E245ABDA-A432-41CE-918D-2590D70896F6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{97DC4EEB-5895-4AE2-BEE3-69C7F8E2D405}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1003,10 +1003,10 @@
     <t>Payroll Suite Statutory SSP201819</t>
   </si>
   <si>
-    <t>Payroll Suite CourtOrder AEO1971civildebt 201819</t>
-  </si>
-  <si>
     <t>hhg</t>
+  </si>
+  <si>
+    <t>Payroll Suite CourtOrder AEO1971civildebt201819</t>
   </si>
 </sst>
 </file>
@@ -1554,7 +1554,7 @@
   <dimension ref="A1:D276"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="B279" sqref="B279"/>
+      <selection activeCell="A278" sqref="A278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4594,10 +4594,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="B276" s="35" t="s">
         <v>326</v>
-      </c>
-      <c r="B276" s="35" t="s">
-        <v>327</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>118</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{97DC4EEB-5895-4AE2-BEE3-69C7F8E2D405}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2081EBFD-1A60-498D-BA4B-1CF123D20A0A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="329">
   <si>
     <t>Description</t>
   </si>
@@ -1007,6 +1007,9 @@
   </si>
   <si>
     <t>Payroll Suite CourtOrder AEO1971civildebt201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite CourtOrder AEO1971civildebt201819CollectiveDraft</t>
   </si>
 </sst>
 </file>
@@ -1551,10 +1554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D276"/>
+  <dimension ref="A1:D277"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="A278" sqref="A278"/>
+      <selection activeCell="B277" sqref="B277:C277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4600,6 +4603,17 @@
         <v>326</v>
       </c>
       <c r="C276" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>328</v>
+      </c>
+      <c r="B277" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="C277" s="2" t="s">
         <v>118</v>
       </c>
     </row>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2081EBFD-1A60-498D-BA4B-1CF123D20A0A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5760E3C9-5528-4CDE-A484-290EFF9F52C9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="328">
   <si>
     <t>Description</t>
   </si>
@@ -1007,9 +1007,6 @@
   </si>
   <si>
     <t>Payroll Suite CourtOrder AEO1971civildebt201819</t>
-  </si>
-  <si>
-    <t>Payroll Suite CourtOrder AEO1971civildebt201819CollectiveDraft</t>
   </si>
 </sst>
 </file>
@@ -1554,10 +1551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D277"/>
+  <dimension ref="A1:D276"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="B277" sqref="B277:C277"/>
+      <selection activeCell="A281" sqref="A281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4603,17 +4600,6 @@
         <v>326</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>328</v>
-      </c>
-      <c r="B277" s="35" t="s">
-        <v>326</v>
-      </c>
-      <c r="C277" s="2" t="s">
         <v>118</v>
       </c>
     </row>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5760E3C9-5528-4CDE-A484-290EFF9F52C9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{193B7C30-8409-4825-9E16-E262BF55AFC3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="329">
   <si>
     <t>Description</t>
   </si>
@@ -1007,6 +1007,9 @@
   </si>
   <si>
     <t>Payroll Suite CourtOrder AEO1971civildebt201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite CourtOrder CAEO1971civildebt201819</t>
   </si>
 </sst>
 </file>
@@ -1551,10 +1554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D276"/>
+  <dimension ref="A1:D277"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="A281" sqref="A281"/>
+      <selection activeCell="B282" sqref="B282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4600,6 +4603,17 @@
         <v>326</v>
       </c>
       <c r="C276" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>328</v>
+      </c>
+      <c r="B277" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="C277" s="2" t="s">
         <v>118</v>
       </c>
     </row>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{193B7C30-8409-4825-9E16-E262BF55AFC3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1D2DB23C-BCB6-45CA-A60C-68A426DF67CB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="332">
   <si>
     <t>Description</t>
   </si>
@@ -1003,13 +1003,22 @@
     <t>Payroll Suite Statutory SSP201819</t>
   </si>
   <si>
-    <t>hhg</t>
-  </si>
-  <si>
     <t>Payroll Suite CourtOrder AEO1971civildebt201819</t>
   </si>
   <si>
     <t>Payroll Suite CourtOrder CAEO1971civildebt201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite CourtOrder CAPS201819</t>
+  </si>
+  <si>
+    <t>Court order scenario 1 gets exuected</t>
+  </si>
+  <si>
+    <t>Court order scenario 2 gets exuected</t>
+  </si>
+  <si>
+    <t>Court order scenario 3 gets exuected</t>
   </si>
 </sst>
 </file>
@@ -1554,10 +1563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D277"/>
+  <dimension ref="A1:D278"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="B282" sqref="B282"/>
+      <selection activeCell="B279" sqref="B279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4597,10 +4606,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B276" s="35" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>118</v>
@@ -4608,12 +4617,23 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
+        <v>327</v>
+      </c>
+      <c r="B277" s="35" t="s">
+        <v>330</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
         <v>328</v>
       </c>
-      <c r="B277" s="35" t="s">
-        <v>326</v>
-      </c>
-      <c r="C277" s="2" t="s">
+      <c r="B278" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="C278" s="2" t="s">
         <v>118</v>
       </c>
     </row>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1D2DB23C-BCB6-45CA-A60C-68A426DF67CB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3CB899EB-A62E-42EC-8B7D-A8654C8184F3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1566,7 +1566,7 @@
   <dimension ref="A1:D278"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="B279" sqref="B279"/>
+      <selection activeCell="F275" sqref="F275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4616,7 +4616,7 @@
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
+      <c r="A277" s="34" t="s">
         <v>327</v>
       </c>
       <c r="B277" s="35" t="s">
@@ -4627,7 +4627,7 @@
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+      <c r="A278" s="34" t="s">
         <v>328</v>
       </c>
       <c r="B278" s="35" t="s">

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3CB899EB-A62E-42EC-8B7D-A8654C8184F3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{60B4F1DD-352D-45CB-96BF-037B1D8C3961}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="333">
   <si>
     <t>Description</t>
   </si>
@@ -1019,6 +1019,9 @@
   </si>
   <si>
     <t>Court order scenario 3 gets exuected</t>
+  </si>
+  <si>
+    <t>Payroll Suite CourtOrder PAEO1971Maintenance201819</t>
   </si>
 </sst>
 </file>
@@ -1563,10 +1566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D278"/>
+  <dimension ref="A1:D279"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="F275" sqref="F275"/>
+      <selection activeCell="A281" sqref="A281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4634,6 +4637,17 @@
         <v>331</v>
       </c>
       <c r="C278" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="B279" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="C279" s="2" t="s">
         <v>118</v>
       </c>
     </row>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{60B4F1DD-352D-45CB-96BF-037B1D8C3961}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E614C5DA-3D4A-40F7-B270-A110C6032802}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1569,7 +1569,7 @@
   <dimension ref="A1:D279"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="A281" sqref="A281"/>
+      <selection activeCell="B282" sqref="B282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E614C5DA-3D4A-40F7-B270-A110C6032802}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D3531777-07E0-4AF2-9280-1F74525BA605}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="334">
   <si>
     <t>Description</t>
   </si>
@@ -1022,6 +1022,9 @@
   </si>
   <si>
     <t>Payroll Suite CourtOrder PAEO1971Maintenance201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite CourtOrder PAEO1971Fine201819</t>
   </si>
 </sst>
 </file>
@@ -1566,10 +1569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D279"/>
+  <dimension ref="A1:D280"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="B282" sqref="B282"/>
+      <selection activeCell="A282" sqref="A282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4648,6 +4651,17 @@
         <v>331</v>
       </c>
       <c r="C279" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="B280" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="C280" s="2" t="s">
         <v>118</v>
       </c>
     </row>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D3531777-07E0-4AF2-9280-1F74525BA605}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6884C133-6E69-4B56-B845-C0C4B1F6CBEA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1572,7 +1572,7 @@
   <dimension ref="A1:D280"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="A282" sqref="A282"/>
+      <selection activeCell="A280" sqref="A280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6884C133-6E69-4B56-B845-C0C4B1F6CBEA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AFE0F427-B130-4757-97AE-3BF2BA7E8A1B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="335">
   <si>
     <t>Description</t>
   </si>
@@ -1025,6 +1025,9 @@
   </si>
   <si>
     <t>Payroll Suite CourtOrder PAEO1971Fine201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite CourtOrder PAEO2003Fine201819</t>
   </si>
 </sst>
 </file>
@@ -1569,10 +1572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D280"/>
+  <dimension ref="A1:D281"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="A280" sqref="A280"/>
+      <selection activeCell="E272" sqref="E272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4662,6 +4665,17 @@
         <v>331</v>
       </c>
       <c r="C280" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="B281" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="C281" s="2" t="s">
         <v>118</v>
       </c>
     </row>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AFE0F427-B130-4757-97AE-3BF2BA7E8A1B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A35275E6-E45F-4903-B7F8-9EE2A0670C44}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1575,7 +1575,7 @@
   <dimension ref="A1:D281"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="E272" sqref="E272"/>
+      <selection activeCell="A284" sqref="A284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A35275E6-E45F-4903-B7F8-9EE2A0670C44}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3DEA85BA-9E53-4595-95DA-7CCCD2731CFB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="340">
   <si>
     <t>Description</t>
   </si>
@@ -1028,6 +1028,21 @@
   </si>
   <si>
     <t>Payroll Suite CourtOrder PAEO2003Fine201819</t>
+  </si>
+  <si>
+    <t>Payroll Suite CourtOrder CTAEOCouncilTax201819</t>
+  </si>
+  <si>
+    <t>Court order scenario 4 gets exuected</t>
+  </si>
+  <si>
+    <t>Court order scenario 5 gets exuected</t>
+  </si>
+  <si>
+    <t>Court order scenario 6 gets exuected</t>
+  </si>
+  <si>
+    <t>Court order scenario 7 gets exuected</t>
   </si>
 </sst>
 </file>
@@ -1572,10 +1587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D281"/>
+  <dimension ref="A1:D282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="A284" sqref="A284"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="F279" sqref="F279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4651,7 +4666,7 @@
         <v>332</v>
       </c>
       <c r="B279" s="35" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>118</v>
@@ -4662,7 +4677,7 @@
         <v>333</v>
       </c>
       <c r="B280" s="35" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>118</v>
@@ -4673,9 +4688,20 @@
         <v>334</v>
       </c>
       <c r="B281" s="35" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C281" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="B282" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="C282" s="2" t="s">
         <v>118</v>
       </c>
     </row>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Suite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3DEA85BA-9E53-4595-95DA-7CCCD2731CFB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0334B85A-0487-43A8-B87E-19605E902AFE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="342">
   <si>
     <t>Description</t>
   </si>
@@ -1043,6 +1043,12 @@
   </si>
   <si>
     <t>Court order scenario 7 gets exuected</t>
+  </si>
+  <si>
+    <t>Payroll Suite CourtOrder DEO2003ChildMaintenance201819</t>
+  </si>
+  <si>
+    <t>Court order scenario 8 gets exuected</t>
   </si>
 </sst>
 </file>
@@ -1587,10 +1593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D282"/>
+  <dimension ref="A1:D283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="F279" sqref="F279"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="H272" sqref="H272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4702,6 +4708,17 @@
         <v>339</v>
       </c>
       <c r="C282" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="B283" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="C283" s="2" t="s">
         <v>118</v>
       </c>
     </row>
